--- a/data/xlsx/Simple.xlsx
+++ b/data/xlsx/Simple.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19001"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
   <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{771984F7-6019-4A55-AD58-A68AC5A8C048}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -48,6 +49,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -77,9 +81,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -362,8 +368,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -383,15 +389,16 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="1">
+      <c r="B2" s="2">
         <v>42752</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2" s="3">
         <v>213412</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -439,7 +446,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3883F17A-78F6-461C-A909-2F18B9D6385C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
